--- a/Files/Modules/Imperial Authority/Tables/Equipment/Armor.xlsx
+++ b/Files/Modules/Imperial Authority/Tables/Equipment/Armor.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>ARMOR</t>
   </si>
@@ -46,6 +46,72 @@
   </si>
   <si>
     <t>This file will provide and overview of the armors added by the IMPERIAL AUTHORITY module</t>
+  </si>
+  <si>
+    <t>Imperial Centurion Helm</t>
+  </si>
+  <si>
+    <t>Imperial Centurion Cuirass</t>
+  </si>
+  <si>
+    <t>Imperial Centurion Gauntlets</t>
+  </si>
+  <si>
+    <t>Imperial Centurion Boots</t>
+  </si>
+  <si>
+    <t>Imperial Centurion Shield</t>
+  </si>
+  <si>
+    <t>Imperial Battlemage Palatine Helm</t>
+  </si>
+  <si>
+    <t>Imperial Battlemage Palatine Cuirass</t>
+  </si>
+  <si>
+    <t>Imperial Battlemage Palatine Gauntlets</t>
+  </si>
+  <si>
+    <t>Imperial Battlemage Palatine Boots</t>
+  </si>
+  <si>
+    <t>Imperial Battlemage Palatine Shield</t>
+  </si>
+  <si>
+    <t>Penitus Oculatus Helm</t>
+  </si>
+  <si>
+    <t>Penitus Oculatus Cuirass</t>
+  </si>
+  <si>
+    <t>Penitus Oculatus Gauntlets</t>
+  </si>
+  <si>
+    <t>Penitus Oculatus Boots</t>
+  </si>
+  <si>
+    <t>Penitus Oculatus Shield</t>
+  </si>
+  <si>
+    <t>Emperor Helm</t>
+  </si>
+  <si>
+    <t>Emperor Cuirass</t>
+  </si>
+  <si>
+    <t>Emperor Gauntlets</t>
+  </si>
+  <si>
+    <t>Emperor Boots</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Exotic</t>
   </si>
 </sst>
 </file>
@@ -366,14 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I7"/>
+  <dimension ref="B2:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I3"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -426,6 +493,158 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:I3"/>
